--- a/학습자료/단답형/한국사 종합_백업.xlsx
+++ b/학습자료/단답형/한국사 종합_백업.xlsx
@@ -21391,7 +21391,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>망이. 망소이의 난</t>
+          <t>망이, 망소이의 난</t>
         </is>
       </c>
       <c r="C1048" t="n">
@@ -21431,7 +21431,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>김사미. 효심의 난</t>
+          <t>김사미, 효심의 난</t>
         </is>
       </c>
       <c r="C1050" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>광명. 계발의 난</t>
+          <t>광명, 계발의 난</t>
         </is>
       </c>
       <c r="C1052" t="n">
@@ -21491,7 +21491,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>이비. 패좌의 난</t>
+          <t>이비, 패좌의 난</t>
         </is>
       </c>
       <c r="C1053" t="n">
